--- a/算法题记录.xlsx
+++ b/算法题记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>双指针+哈希表</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>二叉树的最小深度</t>
+  </si>
+  <si>
+    <t>DFS深度优先搜索</t>
   </si>
 </sst>
 </file>
@@ -93,8 +96,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -115,6 +118,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -123,14 +134,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,66 +207,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -230,7 +233,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,31 +263,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,43 +359,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,103 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,21 +473,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -503,7 +491,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,7 +500,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,6 +515,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -557,10 +560,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,10 +572,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,115 +588,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1056,7 +1059,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1185,7 +1188,10 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="3:8">
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>

--- a/算法题记录.xlsx
+++ b/算法题记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>双指针+哈希表</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>二叉树的最小深度</t>
+  </si>
+  <si>
+    <t>二叉树的锯齿形遍历</t>
+  </si>
+  <si>
+    <t>二叉树层序遍历</t>
   </si>
   <si>
     <t>DFS深度优先搜索</t>
@@ -118,6 +124,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -127,73 +147,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,6 +161,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -223,6 +238,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -231,24 +253,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,37 +269,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,49 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,91 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +460,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,6 +483,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,7 +532,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,8 +540,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,51 +560,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,128 +581,128 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,14 +1065,14 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="3" width="21.3716814159292" customWidth="1"/>
-    <col min="4" max="4" width="12.9557522123894" customWidth="1"/>
+    <col min="4" max="4" width="20.4424778761062" customWidth="1"/>
     <col min="5" max="5" width="16.2477876106195" customWidth="1"/>
     <col min="6" max="6" width="13.8849557522124" customWidth="1"/>
   </cols>
@@ -1182,15 +1188,19 @@
       <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1218,6 +1228,8 @@
     <hyperlink ref="E5" r:id="rId13" display="股票问题Ⅱ"/>
     <hyperlink ref="F5" r:id="rId14" display="股票问题Ⅲ"/>
     <hyperlink ref="C7" r:id="rId15" display="二叉树的最小深度"/>
+    <hyperlink ref="D7" r:id="rId16" display="二叉树的锯齿形遍历"/>
+    <hyperlink ref="E7" r:id="rId17" display="二叉树层序遍历"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/算法题记录.xlsx
+++ b/算法题记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>双指针+哈希表</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>三数之和</t>
+  </si>
+  <si>
+    <t>合并两个有序数组</t>
   </si>
   <si>
     <t>双向链表+哈希表</t>
@@ -102,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -125,14 +128,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,14 +136,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,9 +165,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,45 +219,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,22 +242,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,37 +272,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,145 +446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,11 +466,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,6 +492,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,59 +557,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,10 +569,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,131 +581,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,7 +1068,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1075,6 +1078,7 @@
     <col min="4" max="4" width="20.4424778761062" customWidth="1"/>
     <col min="5" max="5" width="16.2477876106195" customWidth="1"/>
     <col min="6" max="6" width="13.8849557522124" customWidth="1"/>
+    <col min="8" max="8" width="15.4070796460177" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1099,14 +1103,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1116,13 +1122,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1131,16 +1137,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1148,32 +1154,32 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1183,16 +1189,16 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1200,7 +1206,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1230,6 +1236,7 @@
     <hyperlink ref="C7" r:id="rId15" display="二叉树的最小深度"/>
     <hyperlink ref="D7" r:id="rId16" display="二叉树的锯齿形遍历"/>
     <hyperlink ref="E7" r:id="rId17" display="二叉树层序遍历"/>
+    <hyperlink ref="H1" r:id="rId18" display="合并两个有序数组"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/算法题记录.xlsx
+++ b/算法题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8280"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>双指针+哈希表</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>反转链表</t>
+  </si>
+  <si>
+    <t>二叉树的最近公共祖先</t>
   </si>
   <si>
     <t>迭代</t>
@@ -105,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -128,12 +131,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -142,11 +195,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,68 +219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,16 +243,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,79 +275,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,103 +443,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,17 +469,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,11 +495,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,10 +527,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -535,7 +538,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,10 +572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,131 +584,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1068,17 +1071,17 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="3" width="21.3716814159292" customWidth="1"/>
-    <col min="4" max="4" width="20.4424778761062" customWidth="1"/>
-    <col min="5" max="5" width="16.2477876106195" customWidth="1"/>
-    <col min="6" max="6" width="13.8849557522124" customWidth="1"/>
-    <col min="8" max="8" width="15.4070796460177" customWidth="1"/>
+    <col min="2" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="20.4416666666667" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="13.8833333333333" customWidth="1"/>
+    <col min="8" max="8" width="15.4083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1130,14 +1133,16 @@
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -1146,7 +1151,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1154,32 +1159,32 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1189,16 +1194,16 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1206,7 +1211,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1237,6 +1242,7 @@
     <hyperlink ref="D7" r:id="rId16" display="二叉树的锯齿形遍历"/>
     <hyperlink ref="E7" r:id="rId17" display="二叉树层序遍历"/>
     <hyperlink ref="H1" r:id="rId18" display="合并两个有序数组"/>
+    <hyperlink ref="E3" r:id="rId19" display="二叉树的最近公共祖先"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/算法题记录.xlsx
+++ b/算法题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="19200" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>双指针+哈希表</t>
   </si>
@@ -55,9 +55,6 @@
     <t>反转链表</t>
   </si>
   <si>
-    <t>二叉树的最近公共祖先</t>
-  </si>
-  <si>
     <t>迭代</t>
   </si>
   <si>
@@ -101,6 +98,12 @@
   </si>
   <si>
     <t>DFS深度优先搜索</t>
+  </si>
+  <si>
+    <t>栈 + 哈希表</t>
+  </si>
+  <si>
+    <t>有效的括号</t>
   </si>
 </sst>
 </file>
@@ -108,12 +111,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +133,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -137,6 +155,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -144,6 +185,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -151,25 +193,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,37 +221,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,22 +249,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -261,6 +258,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,13 +286,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,13 +370,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,73 +424,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,73 +466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,26 +482,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,6 +505,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -521,24 +541,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,6 +563,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -572,10 +583,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,141 +595,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1068,20 +1082,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="20.4416666666667" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="13.8833333333333" customWidth="1"/>
-    <col min="8" max="8" width="15.4083333333333" customWidth="1"/>
+    <col min="2" max="3" width="21.3716814159292" customWidth="1"/>
+    <col min="4" max="4" width="20.4424778761062" customWidth="1"/>
+    <col min="5" max="5" width="16.2477876106195" customWidth="1"/>
+    <col min="6" max="6" width="13.8849557522124" customWidth="1"/>
+    <col min="8" max="8" width="15.4070796460177" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1133,16 +1147,14 @@
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -1151,7 +1163,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1159,32 +1171,32 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1194,16 +1206,16 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1211,7 +1223,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1219,6 +1231,14 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1242,7 +1262,7 @@
     <hyperlink ref="D7" r:id="rId16" display="二叉树的锯齿形遍历"/>
     <hyperlink ref="E7" r:id="rId17" display="二叉树层序遍历"/>
     <hyperlink ref="H1" r:id="rId18" display="合并两个有序数组"/>
-    <hyperlink ref="E3" r:id="rId19" display="二叉树的最近公共祖先"/>
+    <hyperlink ref="C9" r:id="rId19" display="有效的括号"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/算法题记录.xlsx
+++ b/算法题记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>双指针+哈希表</t>
   </si>
@@ -40,6 +40,9 @@
     <t>合并两个有序数组</t>
   </si>
   <si>
+    <t>环形链表Ⅱ</t>
+  </si>
+  <si>
     <t>双向链表+哈希表</t>
   </si>
   <si>
@@ -101,6 +104,9 @@
   </si>
   <si>
     <t>栈 + 哈希表</t>
+  </si>
+  <si>
+    <t>栈</t>
   </si>
   <si>
     <t>有效的括号</t>
@@ -142,6 +148,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -149,9 +169,71 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,99 +247,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,6 +292,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -298,175 +448,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,30 +483,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -521,11 +503,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,6 +525,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -560,20 +569,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,10 +589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,16 +601,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -614,10 +620,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,113 +638,113 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1082,23 +1094,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="3" width="21.3716814159292" customWidth="1"/>
     <col min="4" max="4" width="20.4424778761062" customWidth="1"/>
     <col min="5" max="5" width="16.2477876106195" customWidth="1"/>
-    <col min="6" max="6" width="13.8849557522124" customWidth="1"/>
+    <col min="6" max="6" width="13.2743362831858" customWidth="1"/>
     <col min="8" max="8" width="15.4070796460177" customWidth="1"/>
+    <col min="9" max="9" width="14.0176991150442" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1120,124 +1133,130 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="3" t="s">
         <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1263,6 +1282,7 @@
     <hyperlink ref="E7" r:id="rId17" display="二叉树层序遍历"/>
     <hyperlink ref="H1" r:id="rId18" display="合并两个有序数组"/>
     <hyperlink ref="C9" r:id="rId19" display="有效的括号"/>
+    <hyperlink ref="I1" r:id="rId20" display="环形链表Ⅱ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
